--- a/Testting/TestCase Template/HRM.Test report.xlsx
+++ b/Testting/TestCase Template/HRM.Test report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="88">
   <si>
     <t>Document Revision History</t>
   </si>
@@ -356,6 +356,18 @@
 6). Quản lý diễn biến thu nhập: 5 defect
 7). Quản lý công tác đoàn thể: 6 defcet
 8). Quản lý trang thiết bị: 2 defect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1). Quản lý danh mục:18/15020=0.0012
+2). Quản lý quá trình đào tạo:11/750=0.015
+3). Quản lý quá trình công tác:4/680=0.006
+4). QL Hoạt động khoa học-công nghệ:6/740=0.008
+5). Quản lý Tập sự-Thử việc:5/730=0.007
+6). QL Khen thưởng-Kỷ luật-DHTĐ:8/780=0.01
+7). Quản lý diễn biến thu nhập:5/1400=0.004
+8). Quản lý công tác đoàn thể:6/630=0.0095
+9). Quản lý trang thiết bị:2/590=0.0034
+</t>
   </si>
 </sst>
 </file>
@@ -566,7 +578,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -672,6 +684,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -975,10 +990,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G268"/>
+  <dimension ref="A1:H268"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D5" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -988,15 +1003,16 @@
     <col min="3" max="3" width="26.5703125" style="14" customWidth="1"/>
     <col min="4" max="4" width="46.140625" style="14" customWidth="1"/>
     <col min="5" max="5" width="24" style="14" customWidth="1"/>
-    <col min="6" max="6" width="48.5703125" style="14" customWidth="1"/>
-    <col min="7" max="7" width="43.42578125" style="14" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="14"/>
+    <col min="6" max="6" width="41.140625" style="14" customWidth="1"/>
+    <col min="7" max="7" width="28.28515625" style="14" customWidth="1"/>
+    <col min="8" max="8" width="39.140625" style="14" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="7"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
         <v>0</v>
       </c>
@@ -1007,7 +1023,7 @@
       <c r="F2" s="35"/>
       <c r="G2" s="36"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
@@ -1030,7 +1046,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>41044</v>
       </c>
@@ -1052,8 +1068,11 @@
       <c r="G4" s="15" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="157.5" x14ac:dyDescent="0.25">
+      <c r="H4" s="38" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>41048</v>
       </c>
@@ -1076,7 +1095,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -1085,7 +1104,7 @@
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="B7" s="10"/>
       <c r="C7" s="28"/>
@@ -1094,7 +1113,7 @@
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
       <c r="B8" s="10"/>
       <c r="C8" s="28"/>
@@ -1103,7 +1122,7 @@
       <c r="F8" s="16"/>
       <c r="G8" s="16"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="10"/>
       <c r="C9" s="28"/>
@@ -1112,7 +1131,7 @@
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
       <c r="B10" s="10"/>
       <c r="C10" s="28"/>
@@ -1121,7 +1140,7 @@
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="10"/>
       <c r="C11" s="28"/>
@@ -1130,7 +1149,7 @@
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="10"/>
       <c r="C12" s="28"/>
@@ -1139,7 +1158,7 @@
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="B13" s="10"/>
       <c r="C13" s="28"/>
@@ -1148,7 +1167,7 @@
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
       <c r="B14" s="10"/>
       <c r="C14" s="28"/>
@@ -1157,7 +1176,7 @@
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
       <c r="B15" s="10"/>
       <c r="C15" s="28"/>
@@ -1166,7 +1185,7 @@
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
       <c r="B16" s="10"/>
       <c r="C16" s="28"/>
@@ -3201,7 +3220,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M69"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="F53" sqref="F53"/>
     </sheetView>

--- a/Testting/TestCase Template/HRM.Test report.xlsx
+++ b/Testting/TestCase Template/HRM.Test report.xlsx
@@ -4,18 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890" tabRatio="619"/>
+    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830" tabRatio="619"/>
   </bookViews>
   <sheets>
     <sheet name="Revision History" sheetId="39" r:id="rId1"/>
     <sheet name=" report" sheetId="34" r:id="rId2"/>
+    <sheet name="Total TestCase" sheetId="40" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="41" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="122">
   <si>
     <t>Document Revision History</t>
   </si>
@@ -338,8 +340,110 @@
     <t>Defect summary</t>
   </si>
   <si>
+    <t>System TestCase</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Quản lý danh mục</t>
+  </si>
+  <si>
+    <t>Quản lý tài khoản cá nhân</t>
+  </si>
+  <si>
+    <t>Quản lý thông tin chung</t>
+  </si>
+  <si>
+    <t>Quản lý quá trình đào tạo</t>
+  </si>
+  <si>
+    <t>Quản lý quá trình công tác</t>
+  </si>
+  <si>
+    <t>QL hoạt động khoa học-công nghệ</t>
+  </si>
+  <si>
+    <t>Quản lý tập sự-thử việc</t>
+  </si>
+  <si>
+    <t>Quản lý KT-KL-DHTĐ</t>
+  </si>
+  <si>
+    <t>Quản lý diễn biến thu nhập</t>
+  </si>
+  <si>
+    <t>Quản lý công tác đoàn thể</t>
+  </si>
+  <si>
+    <t>Quản lý trang thiết bị</t>
+  </si>
+  <si>
+    <t>Acceptance TestCase</t>
+  </si>
+  <si>
+    <t>Number TestCase</t>
+  </si>
+  <si>
+    <t>Catalog Management</t>
+  </si>
+  <si>
+    <t>Account Management</t>
+  </si>
+  <si>
+    <t>Common Information Management</t>
+  </si>
+  <si>
+    <t>Eduacational Management</t>
+  </si>
+  <si>
+    <t>Task Management</t>
+  </si>
+  <si>
+    <t>Profile Management</t>
+  </si>
+  <si>
+    <t>Probation Management</t>
+  </si>
+  <si>
+    <t>Reward Penalty Management</t>
+  </si>
+  <si>
+    <t>Income Management</t>
+  </si>
+  <si>
+    <t>Union Management</t>
+  </si>
+  <si>
+    <t>Facilitate Management</t>
+  </si>
+  <si>
+    <t>TestCase</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Suspend</t>
+  </si>
+  <si>
+    <t>05/15/2012</t>
+  </si>
+  <si>
+    <t>05/17/2012</t>
+  </si>
+  <si>
+    <t>05/25/2012</t>
+  </si>
+  <si>
+    <t>05/29/2012</t>
+  </si>
+  <si>
     <t xml:space="preserve">Các chức năng:
-1). Quản lý danh mục: 18 defect
+1). Quản lý danh mục: 68 defect
 2). Quản lý thông tin chung
 - Quản lý thông tin sơ yếu lý lịch: 
 - Quản lý thông tin lịch sử bản thân: 
@@ -348,25 +452,25 @@
   </si>
   <si>
     <t>Các chức năng:
-1). Quản lý quá trình đào tạo: 11 defect
-2). Quản lý quá trình công tác: 4 defect
-3). QL Hoạt động khoa học-công nghệ: 6 defect
-4). Quản lý Tập sự-Thử việc: 5 defect
-5). QL Khen thưởng-Kỷ luật-DHTĐ: 8 defect
-6). Quản lý diễn biến thu nhập: 5 defect
-7). Quản lý công tác đoàn thể: 6 defcet
-8). Quản lý trang thiết bị: 2 defect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1). Quản lý danh mục:18/15020=0.0012
-2). Quản lý quá trình đào tạo:11/750=0.015
-3). Quản lý quá trình công tác:4/680=0.006
-4). QL Hoạt động khoa học-công nghệ:6/740=0.008
-5). Quản lý Tập sự-Thử việc:5/730=0.007
-6). QL Khen thưởng-Kỷ luật-DHTĐ:8/780=0.01
-7). Quản lý diễn biến thu nhập:5/1400=0.004
-8). Quản lý công tác đoàn thể:6/630=0.0095
-9). Quản lý trang thiết bị:2/590=0.0034
+1). Quản lý quá trình đào tạo: 15 defect
+2). Quản lý quá trình công tác: 24 defect
+3). QL Hoạt động khoa học-công nghệ: 26 defect
+4). Quản lý Tập sự-Thử việc: 18 defect
+5). QL Khen thưởng-Kỷ luật-DHTĐ: 18 defect
+6). Quản lý diễn biến thu nhập: 15 defect
+7). Quản lý công tác đoàn thể: 16 defcet
+8). Quản lý trang thiết bị: 12 defect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1). Quản lý danh mục:68/15020=0.0046
+2). Quản lý quá trình đào tạo:15/750=0.02
+3). Quản lý quá trình công tác:24/680=0.035
+4). QL Hoạt động khoa học-công nghệ:26/740=0.035
+5). Quản lý Tập sự-Thử việc:18/730=0.025
+6). QL Khen thưởng-Kỷ luật-DHTĐ:18/780=0.023
+7). Quản lý diễn biến thu nhập:15/1400=0.011
+8). Quản lý công tác đoàn thể:16/630=0.026
+9). Quản lý trang thiết bị:12/590=0.020
 </t>
   </si>
 </sst>
@@ -374,24 +478,24 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -423,8 +527,17 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="163"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -578,7 +691,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -673,6 +786,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -685,8 +811,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -701,6 +828,554 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="vi-VN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Total TestCase'!$D$3:$D$13</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Catalog Management</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Account Management</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Common Information Management</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Eduacational Management</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Task Management</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Profile Management</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Probation Management</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Reward Penalty Management</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Income Management</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Union Management</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Facilitate Management</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Total TestCase'!$E$3:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>748</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="vi-VN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pass</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$2:$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>05/10/2012</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>05/12/2012</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>05/15/2012</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>05/17/2012</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>05/25/2012</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>05/29/2012</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>06/02/2012</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$I$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>478</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>585</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>782</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>985</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1249</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fail</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$2:$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>05/10/2012</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>05/12/2012</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>05/15/2012</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>05/17/2012</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>05/25/2012</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>05/29/2012</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>06/02/2012</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$4:$I$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>505</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>462</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>323</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>285</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Suspend</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$2:$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>05/10/2012</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>05/12/2012</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>05/15/2012</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>05/17/2012</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>05/25/2012</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>05/29/2012</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>06/02/2012</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$5:$I$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>488</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>482</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>448</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>379</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="55"/>
+        <c:gapDepth val="55"/>
+        <c:shape val="cylinder"/>
+        <c:axId val="79228928"/>
+        <c:axId val="82861440"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="79228928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="82861440"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="82861440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="79228928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>333374</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>942975</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -992,36 +1667,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H268"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" style="14" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" style="14" customWidth="1"/>
-    <col min="3" max="3" width="26.5703125" style="14" customWidth="1"/>
-    <col min="4" max="4" width="46.140625" style="14" customWidth="1"/>
+    <col min="1" max="1" width="16.25" style="14" customWidth="1"/>
+    <col min="2" max="2" width="24.25" style="14" customWidth="1"/>
+    <col min="3" max="3" width="26.625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="46.125" style="14" customWidth="1"/>
     <col min="5" max="5" width="24" style="14" customWidth="1"/>
-    <col min="6" max="6" width="41.140625" style="14" customWidth="1"/>
-    <col min="7" max="7" width="28.28515625" style="14" customWidth="1"/>
-    <col min="8" max="8" width="39.140625" style="14" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="14"/>
+    <col min="6" max="6" width="41.125" style="14" customWidth="1"/>
+    <col min="7" max="7" width="28.25" style="14" customWidth="1"/>
+    <col min="8" max="8" width="39.125" style="14" customWidth="1"/>
+    <col min="9" max="16384" width="9.125" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="7"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="41"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
@@ -1066,13 +1741,13 @@
         <v>26</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="H4" s="38" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="157.5" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+      <c r="H4" s="34" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="252" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>41048</v>
       </c>
@@ -1092,8 +1767,9 @@
         <v>27</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>86</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="H5" s="16"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
@@ -3220,34 +3896,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M69"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="44.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="19.5703125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.5703125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="31.28515625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="21.42578125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="19.140625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="18.7109375" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="10.75" style="5" customWidth="1"/>
+    <col min="2" max="2" width="44.75" style="2" customWidth="1"/>
+    <col min="3" max="3" width="26.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="15.75" style="3" customWidth="1"/>
+    <col min="6" max="6" width="14.875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="14.75" style="3" customWidth="1"/>
+    <col min="8" max="8" width="19.625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="18.625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="31.25" style="2" customWidth="1"/>
+    <col min="11" max="11" width="21.375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="19.125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="18.75" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="9.125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="37"/>
+      <c r="B1" s="42"/>
       <c r="C1" s="18"/>
       <c r="D1" s="19"/>
       <c r="E1" s="19"/>
@@ -3401,7 +4077,7 @@
       <c r="L6" s="25"/>
       <c r="M6" s="25"/>
     </row>
-    <row r="7" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="24">
         <v>5</v>
       </c>
@@ -3626,7 +4302,7 @@
       <c r="L15" s="25"/>
       <c r="M15" s="25"/>
     </row>
-    <row r="16" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="24">
         <v>14</v>
       </c>
@@ -3651,7 +4327,7 @@
       <c r="L16" s="25"/>
       <c r="M16" s="25"/>
     </row>
-    <row r="17" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="24">
         <v>15</v>
       </c>
@@ -4376,7 +5052,7 @@
       <c r="L45" s="25"/>
       <c r="M45" s="25"/>
     </row>
-    <row r="46" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="24">
         <v>44</v>
       </c>
@@ -4426,7 +5102,7 @@
       <c r="L47" s="25"/>
       <c r="M47" s="25"/>
     </row>
-    <row r="48" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="24">
         <v>46</v>
       </c>
@@ -4501,7 +5177,7 @@
       <c r="L50" s="25"/>
       <c r="M50" s="25"/>
     </row>
-    <row r="51" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="24">
         <v>49</v>
       </c>
@@ -4601,7 +5277,7 @@
       <c r="L54" s="25"/>
       <c r="M54" s="25"/>
     </row>
-    <row r="55" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="24">
         <v>53</v>
       </c>
@@ -4776,7 +5452,7 @@
       <c r="L61" s="25"/>
       <c r="M61" s="25"/>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" s="17"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -4791,7 +5467,7 @@
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" s="17"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -4806,7 +5482,7 @@
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" s="17"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -4821,7 +5497,7 @@
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" s="17"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -4836,7 +5512,7 @@
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" s="17"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -4851,7 +5527,7 @@
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" s="17"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -4866,7 +5542,7 @@
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" s="17"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -4881,7 +5557,7 @@
       <c r="L68" s="1"/>
       <c r="M68" s="1"/>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" s="17"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -4964,4 +5640,444 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId60"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:E28"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="33.375" customWidth="1"/>
+    <col min="2" max="2" width="18.375" customWidth="1"/>
+    <col min="4" max="4" width="29.375" customWidth="1"/>
+    <col min="5" max="5" width="16.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="E2" s="43" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="37">
+        <v>460</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="E3" s="37">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="37">
+        <v>6</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="E4" s="37">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="37">
+        <v>32</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="E5" s="37">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" s="37">
+        <v>35</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="E6" s="37">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="37">
+        <v>20</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="E7" s="37">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" s="37">
+        <v>34</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="E8" s="37">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="B9" s="37">
+        <v>11</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="E9" s="37">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" s="37">
+        <v>23</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="E10" s="37">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" s="37">
+        <v>6</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="E11" s="37">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="B12" s="37">
+        <v>24</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="E12" s="37">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" s="37">
+        <v>16</v>
+      </c>
+      <c r="D13" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="E13" s="37">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" s="36">
+        <f>SUM(B3:B13)</f>
+        <v>667</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" s="36">
+        <f>SUM(E3:E13)</f>
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17" s="37">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" s="37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" s="37">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="B20" s="37">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="B21" s="37">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" s="37">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" s="37">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24" s="37">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25" s="37">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="B26" s="37">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="B27" s="37">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="B28" s="36">
+        <f>SUM(B17:B27)</f>
+        <v>582</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="11.875" customWidth="1"/>
+    <col min="6" max="6" width="11.125" customWidth="1"/>
+    <col min="7" max="8" width="11.625" customWidth="1"/>
+    <col min="9" max="9" width="12.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="B2" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="44">
+        <v>41187</v>
+      </c>
+      <c r="D2" s="44">
+        <v>41248</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="F2" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="G2" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="H2" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="I2" s="44">
+        <v>40945</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="37">
+        <v>256</v>
+      </c>
+      <c r="D3" s="37">
+        <v>305</v>
+      </c>
+      <c r="E3" s="37">
+        <v>478</v>
+      </c>
+      <c r="F3" s="37">
+        <v>585</v>
+      </c>
+      <c r="G3" s="37">
+        <v>782</v>
+      </c>
+      <c r="H3" s="37">
+        <v>985</v>
+      </c>
+      <c r="I3" s="37">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B4" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" s="37">
+        <v>505</v>
+      </c>
+      <c r="D4" s="37">
+        <v>462</v>
+      </c>
+      <c r="E4" s="37">
+        <v>323</v>
+      </c>
+      <c r="F4" s="37">
+        <v>285</v>
+      </c>
+      <c r="G4" s="37">
+        <v>305</v>
+      </c>
+      <c r="H4" s="37">
+        <v>264</v>
+      </c>
+      <c r="I4" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B5" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" s="37">
+        <v>488</v>
+      </c>
+      <c r="D5" s="37">
+        <v>482</v>
+      </c>
+      <c r="E5" s="37">
+        <v>448</v>
+      </c>
+      <c r="F5" s="37">
+        <v>379</v>
+      </c>
+      <c r="G5" s="37">
+        <v>162</v>
+      </c>
+      <c r="H5" s="37">
+        <v>0</v>
+      </c>
+      <c r="I5" s="37">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>